--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/RetailSalesReportFor1C.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/RetailSalesReportFor1C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\VodovozSlot-2\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D494A-ADBC-45DD-8171-8F7D3947978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5F0630-EAA7-49E1-92B7-1311C89A5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4575" yWindow="1815" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>{{item.Mesure}}</t>
   </si>
   <si>
-    <t>{{OrganizationDetails}}</t>
-  </si>
-  <si>
     <t>{{item.Nomenclature}}</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Поставщик:</t>
+  </si>
+  <si>
+    <t>{{Supplier}}</t>
   </si>
 </sst>
 </file>
@@ -441,23 +441,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:AMC20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,34 +790,34 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:1017" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:1017" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:1017" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="9" t="s">
@@ -908,21 +908,21 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:1017" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="16" spans="1:1017" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
@@ -971,11 +971,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
